--- a/QAFox/src/test/resources/testdata/testData.xlsx
+++ b/QAFox/src/test/resources/testdata/testData.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Workspaces_Ecplise\Altimetrik_Automation\Maven_TestNG_Altimetrik\src\test\resources\testdata\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GIT_All_Local_Repo\GIT_Local_QAFox_Automation\QAFox\src\test\resources\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F30C4339-9DD0-440D-AEDB-3D3C3E828EEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D4A8346-7316-4522-81CC-DAC7DDE88CDC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="13">
   <si>
     <t>FirstName</t>
   </si>
@@ -61,25 +61,10 @@
     <t>Navin</t>
   </si>
   <si>
-    <t>standard_user</t>
-  </si>
-  <si>
-    <t>secret_sauce</t>
-  </si>
-  <si>
-    <t>AAAAA</t>
-  </si>
-  <si>
-    <t>BBBBB</t>
-  </si>
-  <si>
-    <t>GGGGG</t>
-  </si>
-  <si>
-    <t>HHHH</t>
-  </si>
-  <si>
-    <t>Parag</t>
+    <t>ABC</t>
+  </si>
+  <si>
+    <t>MMM</t>
   </si>
 </sst>
 </file>
@@ -487,16 +472,16 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0206869-1BA9-4A13-8B52-ED6024235FE4}">
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="13" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.54296875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.1796875" customWidth="1"/>
+    <col min="2" max="2" width="18.26953125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
@@ -515,46 +500,6 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
-        <v>17</v>
-      </c>
-      <c r="B6">
-        <v>12345</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
-        <v>11</v>
-      </c>
-      <c r="B7" t="s">
-        <v>12</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/QAFox/src/test/resources/testdata/testData.xlsx
+++ b/QAFox/src/test/resources/testdata/testData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GIT_All_Local_Repo\GIT_Local_QAFox_Automation\QAFox\src\test\resources\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D4A8346-7316-4522-81CC-DAC7DDE88CDC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04749C23-64CE-430F-A791-900CFC6BCC91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -61,10 +61,10 @@
     <t>Navin</t>
   </si>
   <si>
-    <t>ABC</t>
-  </si>
-  <si>
-    <t>MMM</t>
+    <t>parag.bangalore2014@gmail.com</t>
+  </si>
+  <si>
+    <t>Password@123</t>
   </si>
 </sst>
 </file>
@@ -117,13 +117,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -493,14 +494,18 @@
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
+      <c r="A2" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="4" t="s">
         <v>12</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1" xr:uid="{D5DB35F4-1440-4F3A-8EBF-ECF8A4B34346}"/>
+    <hyperlink ref="B2" r:id="rId2" xr:uid="{546B5E4C-318D-4A33-985D-CC5ECB78C555}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/QAFox/src/test/resources/testdata/testData.xlsx
+++ b/QAFox/src/test/resources/testdata/testData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GIT_All_Local_Repo\GIT_Local_QAFox_Automation\QAFox\src\test\resources\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04749C23-64CE-430F-A791-900CFC6BCC91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A9D62F7-6179-4556-82EC-E1A069AA74C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="12">
   <si>
     <t>FirstName</t>
   </si>
@@ -59,9 +59,6 @@
   </si>
   <si>
     <t>Navin</t>
-  </si>
-  <si>
-    <t>parag.bangalore2014@gmail.com</t>
   </si>
   <si>
     <t>Password@123</t>
@@ -124,7 +121,7 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -476,7 +473,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -495,17 +492,13 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="4" t="s">
         <v>11</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>12</v>
       </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" xr:uid="{D5DB35F4-1440-4F3A-8EBF-ECF8A4B34346}"/>
-    <hyperlink ref="B2" r:id="rId2" xr:uid="{546B5E4C-318D-4A33-985D-CC5ECB78C555}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/QAFox/src/test/resources/testdata/testData.xlsx
+++ b/QAFox/src/test/resources/testdata/testData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GIT_All_Local_Repo\GIT_Local_QAFox_Automation\QAFox\src\test\resources\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A9D62F7-6179-4556-82EC-E1A069AA74C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6B24372-0077-42DB-85D1-D5831424446D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -121,7 +121,7 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -473,7 +473,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -499,6 +499,10 @@
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1" xr:uid="{135EAEE0-414C-44A3-BE91-DF6BD4AC1C51}"/>
+    <hyperlink ref="B2" r:id="rId2" xr:uid="{E83F0A72-FA97-48F4-B547-F82C4FB5C588}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/QAFox/src/test/resources/testdata/testData.xlsx
+++ b/QAFox/src/test/resources/testdata/testData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GIT_All_Local_Repo\GIT_Local_QAFox_Automation\QAFox\src\test\resources\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6B24372-0077-42DB-85D1-D5831424446D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C561D17-81BB-41A2-B0FA-70297CB12DD2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="13">
   <si>
     <t>FirstName</t>
   </si>
@@ -62,6 +62,9 @@
   </si>
   <si>
     <t>Password@123</t>
+  </si>
+  <si>
+    <t>parag123@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -473,7 +476,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -492,7 +495,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>11</v>

--- a/QAFox/src/test/resources/testdata/testData.xlsx
+++ b/QAFox/src/test/resources/testdata/testData.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GIT_All_Local_Repo\GIT_Local_QAFox_Automation\QAFox\src\test\resources\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C561D17-81BB-41A2-B0FA-70297CB12DD2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8F8C76A-A1CC-4A80-8AA3-06BA9B06A01E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Register" sheetId="1" r:id="rId1"/>
     <sheet name="LogIn" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="22">
   <si>
     <t>FirstName</t>
   </si>
@@ -34,37 +35,64 @@
     <t>LastName</t>
   </si>
   <si>
-    <t>Email</t>
-  </si>
-  <si>
-    <t>Telephone</t>
-  </si>
-  <si>
     <t>Password</t>
   </si>
   <si>
-    <t>ConfirmPassword</t>
-  </si>
-  <si>
-    <t>Sharma</t>
-  </si>
-  <si>
     <t>userName</t>
   </si>
   <si>
-    <t>navin123@gmail.com</t>
-  </si>
-  <si>
-    <t>Navin@123</t>
-  </si>
-  <si>
-    <t>Navin</t>
-  </si>
-  <si>
     <t>Password@123</t>
   </si>
   <si>
     <t>parag123@gmail.com</t>
+  </si>
+  <si>
+    <t>Address</t>
+  </si>
+  <si>
+    <t>City</t>
+  </si>
+  <si>
+    <t>State</t>
+  </si>
+  <si>
+    <t>ZipCOde</t>
+  </si>
+  <si>
+    <t>Phone_Num</t>
+  </si>
+  <si>
+    <t>SSN</t>
+  </si>
+  <si>
+    <t>newUserName</t>
+  </si>
+  <si>
+    <t>newPassword</t>
+  </si>
+  <si>
+    <t>ConfirmNewPassword</t>
+  </si>
+  <si>
+    <t>Parag</t>
+  </si>
+  <si>
+    <t>Das</t>
+  </si>
+  <si>
+    <t>Arekere, Bangalore, KA</t>
+  </si>
+  <si>
+    <t>Bangalore</t>
+  </si>
+  <si>
+    <t>KA</t>
+  </si>
+  <si>
+    <t>Automation@123</t>
+  </si>
+  <si>
+    <t>user</t>
   </si>
 </sst>
 </file>
@@ -117,14 +145,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -406,10 +433,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:K2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -420,54 +447,90 @@
     <col min="4" max="4" width="16.26953125" customWidth="1"/>
     <col min="5" max="5" width="15.1796875" customWidth="1"/>
     <col min="6" max="6" width="15.6328125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.1796875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.81640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.1796875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.6328125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="19.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>5</v>
+      <c r="C1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" s="1">
-        <v>8630287530</v>
+        <v>16</v>
+      </c>
+      <c r="C2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" t="s">
+        <v>18</v>
       </c>
       <c r="E2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F2" t="s">
-        <v>9</v>
+        <v>19</v>
+      </c>
+      <c r="F2" s="3">
+        <v>573134</v>
+      </c>
+      <c r="G2">
+        <v>8793748912</v>
+      </c>
+      <c r="H2">
+        <v>1159302784</v>
+      </c>
+      <c r="I2" t="s">
+        <v>21</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" xr:uid="{4E6B6CC3-E8FB-4551-8D68-0C4D79C78A03}"/>
+    <hyperlink ref="J2" r:id="rId1" xr:uid="{27D2D40A-8A33-411F-AF54-6494BF4104EB}"/>
+    <hyperlink ref="K2" r:id="rId2" xr:uid="{D3C8989C-1715-40D7-AC93-B0E517D5AF8B}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId2"/>
+  <pageSetup orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
 
@@ -475,7 +538,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0206869-1BA9-4A13-8B52-ED6024235FE4}">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
@@ -487,18 +550,18 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>11</v>
+      <c r="A2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -508,4 +571,16 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86971384-1CC4-44EF-882F-B72012EFC166}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/QAFox/src/test/resources/testdata/testData.xlsx
+++ b/QAFox/src/test/resources/testdata/testData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GIT_All_Local_Repo\GIT_Local_QAFox_Automation\QAFox\src\test\resources\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8F8C76A-A1CC-4A80-8AA3-06BA9B06A01E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4826B89E-63A6-4078-B4C1-A385DC1B3FBA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Register" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="20">
   <si>
     <t>FirstName</t>
   </si>
@@ -41,12 +41,6 @@
     <t>userName</t>
   </si>
   <si>
-    <t>Password@123</t>
-  </si>
-  <si>
-    <t>parag123@gmail.com</t>
-  </si>
-  <si>
     <t>Address</t>
   </si>
   <si>
@@ -92,7 +86,7 @@
     <t>Automation@123</t>
   </si>
   <si>
-    <t>user</t>
+    <t>bangalore329001</t>
   </si>
 </sst>
 </file>
@@ -435,8 +429,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -447,9 +441,9 @@
     <col min="4" max="4" width="16.26953125" customWidth="1"/>
     <col min="5" max="5" width="15.1796875" customWidth="1"/>
     <col min="6" max="6" width="15.6328125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.1796875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.7265625" customWidth="1"/>
     <col min="8" max="8" width="10.81640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.1796875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.26953125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="15.6328125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="19.54296875" bestFit="1" customWidth="1"/>
   </cols>
@@ -462,48 +456,48 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>12</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" t="s">
         <v>15</v>
       </c>
-      <c r="B2" t="s">
+      <c r="D2" t="s">
         <v>16</v>
       </c>
-      <c r="C2" t="s">
+      <c r="E2" t="s">
         <v>17</v>
-      </c>
-      <c r="D2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E2" t="s">
-        <v>19</v>
       </c>
       <c r="F2" s="3">
         <v>573134</v>
@@ -515,13 +509,13 @@
         <v>1159302784</v>
       </c>
       <c r="I2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -538,13 +532,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0206869-1BA9-4A13-8B52-ED6024235FE4}">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="20.1796875" customWidth="1"/>
+    <col min="1" max="1" width="23.08984375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="18.26953125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -557,17 +551,16 @@
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2" s="2" t="s">
-        <v>5</v>
+      <c r="A2" t="s">
+        <v>19</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>4</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" xr:uid="{135EAEE0-414C-44A3-BE91-DF6BD4AC1C51}"/>
-    <hyperlink ref="B2" r:id="rId2" xr:uid="{E83F0A72-FA97-48F4-B547-F82C4FB5C588}"/>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{1E93B6C0-A962-4D28-9DD3-C9011E6B90F4}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/QAFox/src/test/resources/testdata/testData.xlsx
+++ b/QAFox/src/test/resources/testdata/testData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GIT_All_Local_Repo\GIT_Local_QAFox_Automation\QAFox\src\test\resources\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4826B89E-63A6-4078-B4C1-A385DC1B3FBA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C603117-5CFC-4007-B01A-B224D00C1E34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Register" sheetId="1" r:id="rId1"/>
@@ -86,7 +86,7 @@
     <t>Automation@123</t>
   </si>
   <si>
-    <t>bangalore329001</t>
+    <t>newUser34422</t>
   </si>
 </sst>
 </file>
@@ -429,8 +429,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K2"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -532,8 +532,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0206869-1BA9-4A13-8B52-ED6024235FE4}">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/QAFox/src/test/resources/testdata/testData.xlsx
+++ b/QAFox/src/test/resources/testdata/testData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GIT_All_Local_Repo\GIT_Local_QAFox_Automation\QAFox\src\test\resources\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C603117-5CFC-4007-B01A-B224D00C1E34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EF763F2-1CB3-47CB-83B7-94CD0841A4C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -86,7 +86,7 @@
     <t>Automation@123</t>
   </si>
   <si>
-    <t>newUser34422</t>
+    <t>testSelenium29409</t>
   </si>
 </sst>
 </file>
@@ -429,8 +429,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -533,7 +533,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/QAFox/src/test/resources/testdata/testData.xlsx
+++ b/QAFox/src/test/resources/testdata/testData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GIT_All_Local_Repo\GIT_Local_QAFox_Automation\QAFox\src\test\resources\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EF763F2-1CB3-47CB-83B7-94CD0841A4C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01AEC416-39B6-4D1D-8530-BAA89F0E18E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Register" sheetId="1" r:id="rId1"/>
@@ -86,7 +86,7 @@
     <t>Automation@123</t>
   </si>
   <si>
-    <t>testSelenium29409</t>
+    <t>testDemo1990092</t>
   </si>
 </sst>
 </file>
@@ -429,8 +429,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -532,8 +532,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0206869-1BA9-4A13-8B52-ED6024235FE4}">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/QAFox/src/test/resources/testdata/testData.xlsx
+++ b/QAFox/src/test/resources/testdata/testData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GIT_All_Local_Repo\GIT_Local_QAFox_Automation\QAFox\src\test\resources\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01AEC416-39B6-4D1D-8530-BAA89F0E18E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{062EE40B-8101-4383-8D7D-E2CECC7AD66A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Register" sheetId="1" r:id="rId1"/>
@@ -86,7 +86,7 @@
     <t>Automation@123</t>
   </si>
   <si>
-    <t>testDemo1990092</t>
+    <t>newAccount322788</t>
   </si>
 </sst>
 </file>
@@ -429,8 +429,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K2"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -532,8 +532,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0206869-1BA9-4A13-8B52-ED6024235FE4}">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/QAFox/src/test/resources/testdata/testData.xlsx
+++ b/QAFox/src/test/resources/testdata/testData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GIT_All_Local_Repo\GIT_Local_QAFox_Automation\QAFox\src\test\resources\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{062EE40B-8101-4383-8D7D-E2CECC7AD66A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFD4B20D-8760-4CFF-B230-D520B2804A1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -86,7 +86,7 @@
     <t>Automation@123</t>
   </si>
   <si>
-    <t>newAccount322788</t>
+    <t>selenium3888223</t>
   </si>
 </sst>
 </file>
@@ -430,7 +430,7 @@
   <dimension ref="A1:K2"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -443,7 +443,7 @@
     <col min="6" max="6" width="15.6328125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="13.7265625" customWidth="1"/>
     <col min="8" max="8" width="10.81640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.26953125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.453125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="15.6328125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="19.54296875" bestFit="1" customWidth="1"/>
   </cols>
@@ -533,7 +533,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/QAFox/src/test/resources/testdata/testData.xlsx
+++ b/QAFox/src/test/resources/testdata/testData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GIT_All_Local_Repo\GIT_Local_QAFox_Automation\QAFox\src\test\resources\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFD4B20D-8760-4CFF-B230-D520B2804A1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71BE7133-D2BE-4A04-89DB-4DF0DE946E83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Register" sheetId="1" r:id="rId1"/>
@@ -86,7 +86,7 @@
     <t>Automation@123</t>
   </si>
   <si>
-    <t>selenium3888223</t>
+    <t>newUser34422</t>
   </si>
 </sst>
 </file>
@@ -429,8 +429,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -443,7 +443,7 @@
     <col min="6" max="6" width="15.6328125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="13.7265625" customWidth="1"/>
     <col min="8" max="8" width="10.81640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.453125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.26953125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="15.6328125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="19.54296875" bestFit="1" customWidth="1"/>
   </cols>
@@ -532,8 +532,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0206869-1BA9-4A13-8B52-ED6024235FE4}">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
